--- a/uloha 1 (kopie).xlsx
+++ b/uloha 1 (kopie).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbiba/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbiba/Documents/GitHub/ProjectPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971D2F7B-D7CF-C84D-A968-3606A3277D9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F433BD5-2F55-4B49-A695-9E278F3A41CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4ECBE440-5305-FE4E-B8C7-E614FDB1F1DD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{4ECBE440-5305-FE4E-B8C7-E614FDB1F1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>I [A]</t>
   </si>
@@ -329,6 +329,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ěč</t>
+  </si>
+  <si>
+    <t>ěš</t>
+  </si>
+  <si>
+    <t>řědvs</t>
   </si>
 </sst>
 </file>
@@ -761,7 +770,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -882,6 +891,15 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
